--- a/natmiOut/OldD2/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H2">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I2">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J2">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.1942775579295</v>
+        <v>44.3131355</v>
       </c>
       <c r="N2">
-        <v>44.1942775579295</v>
+        <v>88.626271</v>
       </c>
       <c r="O2">
-        <v>0.3787585679561413</v>
+        <v>0.3703811871594727</v>
       </c>
       <c r="P2">
-        <v>0.3787585679561413</v>
+        <v>0.2883888216544467</v>
       </c>
       <c r="Q2">
-        <v>84.20710719634762</v>
+        <v>84.82360574677075</v>
       </c>
       <c r="R2">
-        <v>84.20710719634762</v>
+        <v>339.294422987083</v>
       </c>
       <c r="S2">
-        <v>0.2281515747124325</v>
+        <v>0.1964831147791441</v>
       </c>
       <c r="T2">
-        <v>0.2281515747124325</v>
+        <v>0.1288816005855972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H3">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I3">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J3">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.3113719191055</v>
+        <v>14.95742566666667</v>
       </c>
       <c r="N3">
-        <v>13.3113719191055</v>
+        <v>44.872277</v>
       </c>
       <c r="O3">
-        <v>0.1140825564803779</v>
+        <v>0.1250182144134117</v>
       </c>
       <c r="P3">
-        <v>0.1140825564803779</v>
+        <v>0.1460138505543343</v>
       </c>
       <c r="Q3">
-        <v>25.36328647194845</v>
+        <v>28.63130228588684</v>
       </c>
       <c r="R3">
-        <v>25.36328647194845</v>
+        <v>171.787813715321</v>
       </c>
       <c r="S3">
-        <v>0.06871954091671451</v>
+        <v>0.0663207771443793</v>
       </c>
       <c r="T3">
-        <v>0.06871954091671451</v>
+        <v>0.06525391192054418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H4">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I4">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J4">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.9753057535143</v>
+        <v>14.891776</v>
       </c>
       <c r="N4">
-        <v>13.9753057535143</v>
+        <v>44.675328</v>
       </c>
       <c r="O4">
-        <v>0.1197726738945314</v>
+        <v>0.124469496720514</v>
       </c>
       <c r="P4">
-        <v>0.1197726738945314</v>
+        <v>0.1453729808731985</v>
       </c>
       <c r="Q4">
-        <v>26.62833594565148</v>
+        <v>28.505636580224</v>
       </c>
       <c r="R4">
-        <v>26.62833594565148</v>
+        <v>171.033819481344</v>
       </c>
       <c r="S4">
-        <v>0.07214707855723088</v>
+        <v>0.06602968848984526</v>
       </c>
       <c r="T4">
-        <v>0.07214707855723088</v>
+        <v>0.06496750584628055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H5">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I5">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J5">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.80439829846822</v>
+        <v>8.833753666666667</v>
       </c>
       <c r="N5">
-        <v>8.80439829846822</v>
+        <v>26.501261</v>
       </c>
       <c r="O5">
-        <v>0.07545640466397845</v>
+        <v>0.07383490545674307</v>
       </c>
       <c r="P5">
-        <v>0.07545640466397845</v>
+        <v>0.08623478508022686</v>
       </c>
       <c r="Q5">
-        <v>16.77576718720296</v>
+        <v>16.90945201305883</v>
       </c>
       <c r="R5">
-        <v>16.77576718720296</v>
+        <v>101.456712078353</v>
       </c>
       <c r="S5">
-        <v>0.04545243065819887</v>
+        <v>0.03916859901774163</v>
       </c>
       <c r="T5">
-        <v>0.04545243065819887</v>
+        <v>0.03853851568703216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H6">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I6">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J6">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.0992746201589</v>
+        <v>29.34831033333333</v>
       </c>
       <c r="N6">
-        <v>29.0992746201589</v>
+        <v>88.04493099999999</v>
       </c>
       <c r="O6">
-        <v>0.2493897443904779</v>
+        <v>0.2453011257211672</v>
       </c>
       <c r="P6">
-        <v>0.2493897443904779</v>
+        <v>0.2864971482748841</v>
       </c>
       <c r="Q6">
-        <v>55.44531719211291</v>
+        <v>56.17813943787716</v>
       </c>
       <c r="R6">
-        <v>55.44531719211291</v>
+        <v>337.068836627263</v>
       </c>
       <c r="S6">
-        <v>0.1502240944854538</v>
+        <v>0.1301295284735217</v>
       </c>
       <c r="T6">
-        <v>0.1502240944854538</v>
+        <v>0.1280362075792229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H7">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I7">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J7">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.29729352037384</v>
+        <v>7.297570500000001</v>
       </c>
       <c r="N7">
-        <v>7.29729352037384</v>
+        <v>14.595141</v>
       </c>
       <c r="O7">
-        <v>0.06254005261449314</v>
+        <v>0.06099507052869114</v>
       </c>
       <c r="P7">
-        <v>0.06254005261449314</v>
+        <v>0.04749241356290961</v>
       </c>
       <c r="Q7">
-        <v>13.90415256608443</v>
+        <v>13.96891093389825</v>
       </c>
       <c r="R7">
-        <v>13.90415256608443</v>
+        <v>55.87564373559301</v>
       </c>
       <c r="S7">
-        <v>0.03767204941023865</v>
+        <v>0.03235720889487489</v>
       </c>
       <c r="T7">
-        <v>0.03767204941023865</v>
+        <v>0.02122446438993776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H8">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J8">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.1942775579295</v>
+        <v>44.3131355</v>
       </c>
       <c r="N8">
-        <v>44.1942775579295</v>
+        <v>88.626271</v>
       </c>
       <c r="O8">
-        <v>0.3787585679561413</v>
+        <v>0.3703811871594727</v>
       </c>
       <c r="P8">
-        <v>0.3787585679561413</v>
+        <v>0.2883888216544467</v>
       </c>
       <c r="Q8">
-        <v>18.23410005759285</v>
+        <v>23.253140601083</v>
       </c>
       <c r="R8">
-        <v>18.23410005759285</v>
+        <v>139.518843606498</v>
       </c>
       <c r="S8">
-        <v>0.04940365225827762</v>
+        <v>0.05386294833230554</v>
       </c>
       <c r="T8">
-        <v>0.04940365225827762</v>
+        <v>0.05299648522823386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H9">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J9">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.3113719191055</v>
+        <v>14.95742566666667</v>
       </c>
       <c r="N9">
-        <v>13.3113719191055</v>
+        <v>44.872277</v>
       </c>
       <c r="O9">
-        <v>0.1140825564803779</v>
+        <v>0.1250182144134117</v>
       </c>
       <c r="P9">
-        <v>0.1140825564803779</v>
+        <v>0.1460138505543343</v>
       </c>
       <c r="Q9">
-        <v>5.492133843768459</v>
+        <v>7.848849288880667</v>
       </c>
       <c r="R9">
-        <v>5.492133843768459</v>
+        <v>70.639643599926</v>
       </c>
       <c r="S9">
-        <v>0.01488044212307969</v>
+        <v>0.01818086300546183</v>
       </c>
       <c r="T9">
-        <v>0.01488044212307969</v>
+        <v>0.02683259645650349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H10">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J10">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9753057535143</v>
+        <v>14.891776</v>
       </c>
       <c r="N10">
-        <v>13.9753057535143</v>
+        <v>44.675328</v>
       </c>
       <c r="O10">
-        <v>0.1197726738945314</v>
+        <v>0.124469496720514</v>
       </c>
       <c r="P10">
-        <v>0.1197726738945314</v>
+        <v>0.1453729808731985</v>
       </c>
       <c r="Q10">
-        <v>5.7660660503163</v>
+        <v>7.814399888896001</v>
       </c>
       <c r="R10">
-        <v>5.7660660503163</v>
+        <v>70.32959900006401</v>
       </c>
       <c r="S10">
-        <v>0.01562263677112304</v>
+        <v>0.01810106534357668</v>
       </c>
       <c r="T10">
-        <v>0.01562263677112304</v>
+        <v>0.02671482545416474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H11">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J11">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.80439829846822</v>
+        <v>8.833753666666667</v>
       </c>
       <c r="N11">
-        <v>8.80439829846822</v>
+        <v>26.501261</v>
       </c>
       <c r="O11">
-        <v>0.07545640466397845</v>
+        <v>0.07383490545674307</v>
       </c>
       <c r="P11">
-        <v>0.07545640466397845</v>
+        <v>0.08623478508022686</v>
       </c>
       <c r="Q11">
-        <v>3.632603323150489</v>
+        <v>4.635476901568667</v>
       </c>
       <c r="R11">
-        <v>3.632603323150489</v>
+        <v>41.719292114118</v>
       </c>
       <c r="S11">
-        <v>0.009842211614631344</v>
+        <v>0.01073749379183473</v>
       </c>
       <c r="T11">
-        <v>0.009842211614631344</v>
+        <v>0.01584714860806983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H12">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J12">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.0992746201589</v>
+        <v>29.34831033333333</v>
       </c>
       <c r="N12">
-        <v>29.0992746201589</v>
+        <v>88.04493099999999</v>
       </c>
       <c r="O12">
-        <v>0.2493897443904779</v>
+        <v>0.2453011257211672</v>
       </c>
       <c r="P12">
-        <v>0.2493897443904779</v>
+        <v>0.2864971482748841</v>
       </c>
       <c r="Q12">
-        <v>12.00605857470675</v>
+        <v>15.40040845417533</v>
       </c>
       <c r="R12">
-        <v>12.00605857470675</v>
+        <v>138.603676087578</v>
       </c>
       <c r="S12">
-        <v>0.03252933465012627</v>
+        <v>0.03567309117913359</v>
       </c>
       <c r="T12">
-        <v>0.03252933465012627</v>
+        <v>0.05264885719001275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H13">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J13">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.29729352037384</v>
+        <v>7.297570500000001</v>
       </c>
       <c r="N13">
-        <v>7.29729352037384</v>
+        <v>14.595141</v>
       </c>
       <c r="O13">
-        <v>0.06254005261449314</v>
+        <v>0.06099507052869114</v>
       </c>
       <c r="P13">
-        <v>0.06254005261449314</v>
+        <v>0.04749241356290961</v>
       </c>
       <c r="Q13">
-        <v>3.010787539760259</v>
+        <v>3.829370929593001</v>
       </c>
       <c r="R13">
-        <v>3.010787539760259</v>
+        <v>22.976225577558</v>
       </c>
       <c r="S13">
-        <v>0.008157457739513317</v>
+        <v>0.008870251638881594</v>
       </c>
       <c r="T13">
-        <v>0.008157457739513317</v>
+        <v>0.008727560865225734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H14">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I14">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J14">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.1942775579295</v>
+        <v>44.3131355</v>
       </c>
       <c r="N14">
-        <v>44.1942775579295</v>
+        <v>88.626271</v>
       </c>
       <c r="O14">
-        <v>0.3787585679561413</v>
+        <v>0.3703811871594727</v>
       </c>
       <c r="P14">
-        <v>0.3787585679561413</v>
+        <v>0.2883888216544467</v>
       </c>
       <c r="Q14">
-        <v>22.15264663375913</v>
+        <v>5.470264553887834</v>
       </c>
       <c r="R14">
-        <v>22.15264663375913</v>
+        <v>32.821587323327</v>
       </c>
       <c r="S14">
-        <v>0.06002060136985003</v>
+        <v>0.01267117341630747</v>
       </c>
       <c r="T14">
-        <v>0.06002060136985003</v>
+        <v>0.01246733934129937</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H15">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I15">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J15">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.3113719191055</v>
+        <v>14.95742566666667</v>
       </c>
       <c r="N15">
-        <v>13.3113719191055</v>
+        <v>44.872277</v>
       </c>
       <c r="O15">
-        <v>0.1140825564803779</v>
+        <v>0.1250182144134117</v>
       </c>
       <c r="P15">
-        <v>0.1140825564803779</v>
+        <v>0.1460138505543343</v>
       </c>
       <c r="Q15">
-        <v>6.672404995148051</v>
+        <v>1.846429383038778</v>
       </c>
       <c r="R15">
-        <v>6.672404995148051</v>
+        <v>16.617864447349</v>
       </c>
       <c r="S15">
-        <v>0.01807828053293056</v>
+        <v>0.004277019270817829</v>
       </c>
       <c r="T15">
-        <v>0.01807828053293056</v>
+        <v>0.006312325883323952</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H16">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I16">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J16">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.9753057535143</v>
+        <v>14.891776</v>
       </c>
       <c r="N16">
-        <v>13.9753057535143</v>
+        <v>44.675328</v>
       </c>
       <c r="O16">
-        <v>0.1197726738945314</v>
+        <v>0.124469496720514</v>
       </c>
       <c r="P16">
-        <v>0.1197726738945314</v>
+        <v>0.1453729808731985</v>
       </c>
       <c r="Q16">
-        <v>7.005205810877552</v>
+        <v>1.838325216170667</v>
       </c>
       <c r="R16">
-        <v>7.005205810877552</v>
+        <v>16.544926945536</v>
       </c>
       <c r="S16">
-        <v>0.01897997437686254</v>
+        <v>0.004258246997051372</v>
       </c>
       <c r="T16">
-        <v>0.01897997437686254</v>
+        <v>0.006284620441266826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H17">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I17">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J17">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.80439829846822</v>
+        <v>8.833753666666667</v>
       </c>
       <c r="N17">
-        <v>8.80439829846822</v>
+        <v>26.501261</v>
       </c>
       <c r="O17">
-        <v>0.07545640466397845</v>
+        <v>0.07383490545674307</v>
       </c>
       <c r="P17">
-        <v>0.07545640466397845</v>
+        <v>0.08623478508022686</v>
       </c>
       <c r="Q17">
-        <v>4.413257442056357</v>
+        <v>1.090488610550778</v>
       </c>
       <c r="R17">
-        <v>4.413257442056357</v>
+        <v>9.814397494957001</v>
       </c>
       <c r="S17">
-        <v>0.01195732365759492</v>
+        <v>0.002525978434256255</v>
       </c>
       <c r="T17">
-        <v>0.01195732365759492</v>
+        <v>0.00372801664936735</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H18">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I18">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J18">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.0992746201589</v>
+        <v>29.34831033333333</v>
       </c>
       <c r="N18">
-        <v>29.0992746201589</v>
+        <v>88.04493099999999</v>
       </c>
       <c r="O18">
-        <v>0.2493897443904779</v>
+        <v>0.2453011257211672</v>
       </c>
       <c r="P18">
-        <v>0.2493897443904779</v>
+        <v>0.2864971482748841</v>
       </c>
       <c r="Q18">
-        <v>14.58618589508845</v>
+        <v>3.622921734638556</v>
       </c>
       <c r="R18">
-        <v>14.58618589508845</v>
+        <v>32.606295611747</v>
       </c>
       <c r="S18">
-        <v>0.0395199573030463</v>
+        <v>0.00839203828646418</v>
       </c>
       <c r="T18">
-        <v>0.0395199573030463</v>
+        <v>0.01238556039504684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H19">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I19">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J19">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.29729352037384</v>
+        <v>7.297570500000001</v>
       </c>
       <c r="N19">
-        <v>7.29729352037384</v>
+        <v>14.595141</v>
       </c>
       <c r="O19">
-        <v>0.06254005261449314</v>
+        <v>0.06099507052869114</v>
       </c>
       <c r="P19">
-        <v>0.06254005261449314</v>
+        <v>0.04749241356290961</v>
       </c>
       <c r="Q19">
-        <v>3.657812134789772</v>
+        <v>0.9008534554195001</v>
       </c>
       <c r="R19">
-        <v>3.657812134789772</v>
+        <v>5.405120732517001</v>
       </c>
       <c r="S19">
-        <v>0.009910512619898284</v>
+        <v>0.002086712670630802</v>
       </c>
       <c r="T19">
-        <v>0.009910512619898284</v>
+        <v>0.002053144891779453</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H20">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I20">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J20">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.1942775579295</v>
+        <v>44.3131355</v>
       </c>
       <c r="N20">
-        <v>44.1942775579295</v>
+        <v>88.626271</v>
       </c>
       <c r="O20">
-        <v>0.3787585679561413</v>
+        <v>0.3703811871594727</v>
       </c>
       <c r="P20">
-        <v>0.3787585679561413</v>
+        <v>0.2883888216544467</v>
       </c>
       <c r="Q20">
-        <v>15.19989232517685</v>
+        <v>6.809525677059167</v>
       </c>
       <c r="R20">
-        <v>15.19989232517685</v>
+        <v>40.857154062355</v>
       </c>
       <c r="S20">
-        <v>0.04118273961558117</v>
+        <v>0.01577340179562081</v>
       </c>
       <c r="T20">
-        <v>0.04118273961558117</v>
+        <v>0.01551966390891463</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H21">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I21">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J21">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.3113719191055</v>
+        <v>14.95742566666667</v>
       </c>
       <c r="N21">
-        <v>13.3113719191055</v>
+        <v>44.872277</v>
       </c>
       <c r="O21">
-        <v>0.1140825564803779</v>
+        <v>0.1250182144134117</v>
       </c>
       <c r="P21">
-        <v>0.1140825564803779</v>
+        <v>0.1460138505543343</v>
       </c>
       <c r="Q21">
-        <v>4.578226663069035</v>
+        <v>2.298482673153889</v>
       </c>
       <c r="R21">
-        <v>4.578226663069035</v>
+        <v>20.686344058385</v>
       </c>
       <c r="S21">
-        <v>0.01240429290765317</v>
+        <v>0.005324143331461272</v>
       </c>
       <c r="T21">
-        <v>0.01240429290765317</v>
+        <v>0.007857745226217631</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H22">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I22">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J22">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.9753057535143</v>
+        <v>14.891776</v>
       </c>
       <c r="N22">
-        <v>13.9753057535143</v>
+        <v>44.675328</v>
       </c>
       <c r="O22">
-        <v>0.1197726738945314</v>
+        <v>0.124469496720514</v>
       </c>
       <c r="P22">
-        <v>0.1197726738945314</v>
+        <v>0.1453729808731985</v>
       </c>
       <c r="Q22">
-        <v>4.806575746970847</v>
+        <v>2.288394398293333</v>
       </c>
       <c r="R22">
-        <v>4.806575746970847</v>
+        <v>20.59554958464</v>
       </c>
       <c r="S22">
-        <v>0.01302298418931496</v>
+        <v>0.00530077512340292</v>
       </c>
       <c r="T22">
-        <v>0.01302298418931496</v>
+        <v>0.007823256781056749</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H23">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I23">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J23">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.80439829846822</v>
+        <v>8.833753666666667</v>
       </c>
       <c r="N23">
-        <v>8.80439829846822</v>
+        <v>26.501261</v>
       </c>
       <c r="O23">
-        <v>0.07545640466397845</v>
+        <v>0.07383490545674307</v>
       </c>
       <c r="P23">
-        <v>0.07545640466397845</v>
+        <v>0.08623478508022686</v>
       </c>
       <c r="Q23">
-        <v>3.028127475311013</v>
+        <v>1.357468203033889</v>
       </c>
       <c r="R23">
-        <v>3.028127475311013</v>
+        <v>12.217213827305</v>
       </c>
       <c r="S23">
-        <v>0.008204438733553308</v>
+        <v>0.003144402768517067</v>
       </c>
       <c r="T23">
-        <v>0.008204438733553308</v>
+        <v>0.004640730781535723</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H24">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I24">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J24">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.0992746201589</v>
+        <v>29.34831033333333</v>
       </c>
       <c r="N24">
-        <v>29.0992746201589</v>
+        <v>88.04493099999999</v>
       </c>
       <c r="O24">
-        <v>0.2493897443904779</v>
+        <v>0.2453011257211672</v>
       </c>
       <c r="P24">
-        <v>0.2493897443904779</v>
+        <v>0.2864971482748841</v>
       </c>
       <c r="Q24">
-        <v>10.00821521264593</v>
+        <v>4.509905935072777</v>
       </c>
       <c r="R24">
-        <v>10.00821521264593</v>
+        <v>40.589153415655</v>
       </c>
       <c r="S24">
-        <v>0.02711635795185149</v>
+        <v>0.01044662458855426</v>
       </c>
       <c r="T24">
-        <v>0.02711635795185149</v>
+        <v>0.01541786337827052</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.461005</v>
+      </c>
+      <c r="I25">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J25">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.297570500000001</v>
+      </c>
+      <c r="N25">
+        <v>14.595141</v>
+      </c>
+      <c r="O25">
+        <v>0.06099507052869114</v>
+      </c>
+      <c r="P25">
+        <v>0.04749241356290961</v>
+      </c>
+      <c r="Q25">
+        <v>1.1214054961175</v>
+      </c>
+      <c r="R25">
+        <v>6.728432976705001</v>
+      </c>
+      <c r="S25">
+        <v>0.002597593474927303</v>
+      </c>
+      <c r="T25">
+        <v>0.002555807442504494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.643757</v>
+      </c>
+      <c r="I26">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J26">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>44.3131355</v>
+      </c>
+      <c r="N26">
+        <v>88.626271</v>
+      </c>
+      <c r="O26">
+        <v>0.3703811871594727</v>
+      </c>
+      <c r="P26">
+        <v>0.2883888216544467</v>
+      </c>
+      <c r="Q26">
+        <v>24.2800088900245</v>
+      </c>
+      <c r="R26">
+        <v>145.680053340147</v>
+      </c>
+      <c r="S26">
+        <v>0.05624155836783608</v>
+      </c>
+      <c r="T26">
+        <v>0.0553368318953716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H27">
+        <v>1.643757</v>
+      </c>
+      <c r="I27">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J27">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>14.95742566666667</v>
+      </c>
+      <c r="N27">
+        <v>44.872277</v>
+      </c>
+      <c r="O27">
+        <v>0.1250182144134117</v>
+      </c>
+      <c r="P27">
+        <v>0.1460138505543343</v>
+      </c>
+      <c r="Q27">
+        <v>8.195457713854333</v>
+      </c>
+      <c r="R27">
+        <v>73.759119424689</v>
+      </c>
+      <c r="S27">
+        <v>0.01898373742170429</v>
+      </c>
+      <c r="T27">
+        <v>0.02801753499378925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H28">
+        <v>1.643757</v>
+      </c>
+      <c r="I28">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J28">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.891776</v>
+      </c>
+      <c r="N28">
+        <v>44.675328</v>
+      </c>
+      <c r="O28">
+        <v>0.124469496720514</v>
+      </c>
+      <c r="P28">
+        <v>0.1453729808731985</v>
+      </c>
+      <c r="Q28">
+        <v>8.159487014143998</v>
+      </c>
+      <c r="R28">
+        <v>73.43538312729599</v>
+      </c>
+      <c r="S28">
+        <v>0.01890041586212604</v>
+      </c>
+      <c r="T28">
+        <v>0.02789456317536577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H29">
+        <v>1.643757</v>
+      </c>
+      <c r="I29">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J29">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.833753666666667</v>
+      </c>
+      <c r="N29">
+        <v>26.501261</v>
+      </c>
+      <c r="O29">
+        <v>0.07383490545674307</v>
+      </c>
+      <c r="P29">
+        <v>0.08623478508022686</v>
+      </c>
+      <c r="Q29">
+        <v>4.840181475286332</v>
+      </c>
+      <c r="R29">
+        <v>43.56163327757699</v>
+      </c>
+      <c r="S29">
+        <v>0.0112116659506281</v>
+      </c>
+      <c r="T29">
+        <v>0.01654696523305564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H30">
+        <v>1.643757</v>
+      </c>
+      <c r="I30">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J30">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>29.34831033333333</v>
+      </c>
+      <c r="N30">
+        <v>88.04493099999999</v>
+      </c>
+      <c r="O30">
+        <v>0.2453011257211672</v>
+      </c>
+      <c r="P30">
+        <v>0.2864971482748841</v>
+      </c>
+      <c r="Q30">
+        <v>16.08049684952966</v>
+      </c>
+      <c r="R30">
+        <v>144.724471645767</v>
+      </c>
+      <c r="S30">
+        <v>0.03724842961314559</v>
+      </c>
+      <c r="T30">
+        <v>0.05497385245946533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.643757</v>
+      </c>
+      <c r="I31">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J31">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.297570500000001</v>
+      </c>
+      <c r="N31">
+        <v>14.595141</v>
+      </c>
+      <c r="O31">
+        <v>0.06099507052869114</v>
+      </c>
+      <c r="P31">
+        <v>0.04749241356290961</v>
+      </c>
+      <c r="Q31">
+        <v>3.9984775307895</v>
+      </c>
+      <c r="R31">
+        <v>23.990865184737</v>
+      </c>
+      <c r="S31">
+        <v>0.009261965613314561</v>
+      </c>
+      <c r="T31">
+        <v>0.009112973556184551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3443785</v>
+      </c>
+      <c r="H32">
+        <v>0.688757</v>
+      </c>
+      <c r="I32">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J32">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>44.3131355</v>
+      </c>
+      <c r="N32">
+        <v>88.626271</v>
+      </c>
+      <c r="O32">
+        <v>0.3703811871594727</v>
+      </c>
+      <c r="P32">
+        <v>0.2883888216544467</v>
+      </c>
+      <c r="Q32">
+        <v>15.26049113378675</v>
+      </c>
+      <c r="R32">
+        <v>61.041964535147</v>
+      </c>
+      <c r="S32">
+        <v>0.0353489904682587</v>
+      </c>
+      <c r="T32">
+        <v>0.02318690069503002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3443785</v>
+      </c>
+      <c r="H33">
+        <v>0.688757</v>
+      </c>
+      <c r="I33">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J33">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>14.95742566666667</v>
+      </c>
+      <c r="N33">
+        <v>44.872277</v>
+      </c>
+      <c r="O33">
+        <v>0.1250182144134117</v>
+      </c>
+      <c r="P33">
+        <v>0.1460138505543343</v>
+      </c>
+      <c r="Q33">
+        <v>5.151015814948167</v>
+      </c>
+      <c r="R33">
+        <v>30.906094889689</v>
+      </c>
+      <c r="S33">
+        <v>0.01193167423958722</v>
+      </c>
+      <c r="T33">
+        <v>0.01173973607395576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3443785</v>
+      </c>
+      <c r="H34">
+        <v>0.688757</v>
+      </c>
+      <c r="I34">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J34">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>14.891776</v>
+      </c>
+      <c r="N34">
+        <v>44.675328</v>
+      </c>
+      <c r="O34">
+        <v>0.124469496720514</v>
+      </c>
+      <c r="P34">
+        <v>0.1453729808731985</v>
+      </c>
+      <c r="Q34">
+        <v>5.128407481216</v>
+      </c>
+      <c r="R34">
+        <v>30.770444887296</v>
+      </c>
+      <c r="S34">
+        <v>0.01187930490451175</v>
+      </c>
+      <c r="T34">
+        <v>0.01168820917506383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="H25">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="I25">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="J25">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>7.29729352037384</v>
-      </c>
-      <c r="N25">
-        <v>7.29729352037384</v>
-      </c>
-      <c r="O25">
-        <v>0.06254005261449314</v>
-      </c>
-      <c r="P25">
-        <v>0.06254005261449314</v>
-      </c>
-      <c r="Q25">
-        <v>2.509783662138216</v>
-      </c>
-      <c r="R25">
-        <v>2.509783662138216</v>
-      </c>
-      <c r="S25">
-        <v>0.006800032844842886</v>
-      </c>
-      <c r="T25">
-        <v>0.006800032844842886</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3443785</v>
+      </c>
+      <c r="H35">
+        <v>0.688757</v>
+      </c>
+      <c r="I35">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J35">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.833753666666667</v>
+      </c>
+      <c r="N35">
+        <v>26.501261</v>
+      </c>
+      <c r="O35">
+        <v>0.07383490545674307</v>
+      </c>
+      <c r="P35">
+        <v>0.08623478508022686</v>
+      </c>
+      <c r="Q35">
+        <v>3.042154837096166</v>
+      </c>
+      <c r="R35">
+        <v>18.252929022577</v>
+      </c>
+      <c r="S35">
+        <v>0.007046765493765282</v>
+      </c>
+      <c r="T35">
+        <v>0.006933408121166148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3443785</v>
+      </c>
+      <c r="H36">
+        <v>0.688757</v>
+      </c>
+      <c r="I36">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J36">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>29.34831033333333</v>
+      </c>
+      <c r="N36">
+        <v>88.04493099999999</v>
+      </c>
+      <c r="O36">
+        <v>0.2453011257211672</v>
+      </c>
+      <c r="P36">
+        <v>0.2864971482748841</v>
+      </c>
+      <c r="Q36">
+        <v>10.10692709012783</v>
+      </c>
+      <c r="R36">
+        <v>60.64156254076699</v>
+      </c>
+      <c r="S36">
+        <v>0.02341141358034794</v>
+      </c>
+      <c r="T36">
+        <v>0.02303480727286573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3443785</v>
+      </c>
+      <c r="H37">
+        <v>0.688757</v>
+      </c>
+      <c r="I37">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J37">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.297570500000001</v>
+      </c>
+      <c r="N37">
+        <v>14.595141</v>
+      </c>
+      <c r="O37">
+        <v>0.06099507052869114</v>
+      </c>
+      <c r="P37">
+        <v>0.04749241356290961</v>
+      </c>
+      <c r="Q37">
+        <v>2.51312638243425</v>
+      </c>
+      <c r="R37">
+        <v>10.052505529737</v>
+      </c>
+      <c r="S37">
+        <v>0.005821338236061989</v>
+      </c>
+      <c r="T37">
+        <v>0.003818462417277616</v>
       </c>
     </row>
   </sheetData>
